--- a/BalanceSheet/PODD_bal.xlsx
+++ b/BalanceSheet/PODD_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-27600000.0</v>
+        <v>154000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-20100000.0</v>
+        <v>125000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-7600000.0</v>
+        <v>104000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>4800000.0</v>
+        <v>96000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-10154000.0</v>
+        <v>101000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>90207000.0</v>
